--- a/data/results/quantile/Test_output_12.xlsx
+++ b/data/results/quantile/Test_output_12.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2920,7 +2920,7 @@
         <v>0.8420117231920723</v>
       </c>
       <c r="F108" t="n">
-        <v>0.4222521639221414</v>
+        <v>0.5251046599177762</v>
       </c>
       <c r="G108" t="n">
         <v>0.264246380684629</v>
@@ -2940,10 +2940,10 @@
         <v>0.9006234906497808</v>
       </c>
       <c r="E109" t="n">
-        <v>0.485802923666955</v>
+        <v>0.5692249100556477</v>
       </c>
       <c r="F109" t="n">
-        <v>0.4381877916773489</v>
+        <v>0.5968502120762658</v>
       </c>
       <c r="G109" t="n">
         <v>0.3244406982664727</v>
@@ -2960,16 +2960,16 @@
         <v>0.552886307284712</v>
       </c>
       <c r="D110" t="n">
-        <v>0.3205996915921101</v>
+        <v>0.320928548957818</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3409453866843558</v>
+        <v>0.3931150455069201</v>
       </c>
       <c r="F110" t="n">
-        <v>0.3701493517018585</v>
+        <v>0.6444854714532979</v>
       </c>
       <c r="G110" t="n">
-        <v>0.4000728068296666</v>
+        <v>0.3521231092032083</v>
       </c>
     </row>
     <row r="111">
@@ -2983,16 +2983,16 @@
         <v>0.5165396424179451</v>
       </c>
       <c r="D111" t="n">
-        <v>0.3657828931220575</v>
+        <v>0.3662924109929013</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5063371861173238</v>
+        <v>0.5076306072212594</v>
       </c>
       <c r="F111" t="n">
-        <v>0.4927707514533111</v>
+        <v>0.4828395933960467</v>
       </c>
       <c r="G111" t="n">
-        <v>0.6143783653808687</v>
+        <v>0.5383224021302894</v>
       </c>
     </row>
     <row r="112">
@@ -3006,16 +3006,16 @@
         <v>0.562320158830891</v>
       </c>
       <c r="D112" t="n">
-        <v>0.275274559151345</v>
+        <v>0.2756690708087671</v>
       </c>
       <c r="E112" t="n">
-        <v>0.4244125657648578</v>
+        <v>0.49076839179689</v>
       </c>
       <c r="F112" t="n">
-        <v>0.5650096104189275</v>
+        <v>0.4398503924672795</v>
       </c>
       <c r="G112" t="n">
-        <v>0.4374362262680234</v>
+        <v>0.4756575881234897</v>
       </c>
     </row>
     <row r="113">
@@ -3029,16 +3029,16 @@
         <v>0.8253056696402907</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4219250960778513</v>
+        <v>0.4225204278210553</v>
       </c>
       <c r="E113" t="n">
-        <v>0.536015650972582</v>
+        <v>0.4613254416959962</v>
       </c>
       <c r="F113" t="n">
-        <v>0.6187352427266045</v>
+        <v>0.4890536880339231</v>
       </c>
       <c r="G113" t="n">
-        <v>0.5058180929943887</v>
+        <v>0.6154492714527298</v>
       </c>
     </row>
     <row r="114">
@@ -3052,16 +3052,16 @@
         <v>0.5879428994059275</v>
       </c>
       <c r="D114" t="n">
-        <v>0.3659621822650707</v>
+        <v>0.3664094849217019</v>
       </c>
       <c r="E114" t="n">
-        <v>0.6171242098133963</v>
+        <v>0.624054995220895</v>
       </c>
       <c r="F114" t="n">
-        <v>0.5218560251054486</v>
+        <v>0.6123736488011058</v>
       </c>
       <c r="G114" t="n">
-        <v>0.6561157702378786</v>
+        <v>0.7629704734906074</v>
       </c>
     </row>
     <row r="115">
@@ -3075,16 +3075,16 @@
         <v>0.9548343420868844</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6126083813320371</v>
+        <v>0.6109967302912023</v>
       </c>
       <c r="E115" t="n">
-        <v>0.4127728307710212</v>
+        <v>0.4447196498274649</v>
       </c>
       <c r="F115" t="n">
-        <v>0.6437721040840854</v>
+        <v>0.5106478224525723</v>
       </c>
       <c r="G115" t="n">
-        <v>0.5673465211851716</v>
+        <v>0.6487556056937123</v>
       </c>
     </row>
     <row r="116">
@@ -3098,16 +3098,16 @@
         <v>0.7045859106754753</v>
       </c>
       <c r="D116" t="n">
-        <v>0.3219170804069532</v>
+        <v>0.3232326292062052</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4518000404173471</v>
+        <v>0.5256157115746006</v>
       </c>
       <c r="F116" t="n">
-        <v>0.5618311209405183</v>
+        <v>0.5021991437558101</v>
       </c>
       <c r="G116" t="n">
-        <v>0.5979685195528621</v>
+        <v>0.7403075090646472</v>
       </c>
     </row>
     <row r="117">
@@ -3121,16 +3121,16 @@
         <v>0.7305491500717207</v>
       </c>
       <c r="D117" t="n">
-        <v>0.61685497101168</v>
+        <v>0.6149528098345689</v>
       </c>
       <c r="E117" t="n">
-        <v>0.3954816126963819</v>
+        <v>0.418088997252222</v>
       </c>
       <c r="F117" t="n">
-        <v>0.5410155997501838</v>
+        <v>0.6408195820638638</v>
       </c>
       <c r="G117" t="n">
-        <v>0.2302005982244666</v>
+        <v>-0.04272122894683447</v>
       </c>
     </row>
     <row r="118">
@@ -3144,16 +3144,16 @@
         <v>0.9073043034888604</v>
       </c>
       <c r="D118" t="n">
-        <v>0.2509831777702939</v>
+        <v>0.2534726625679622</v>
       </c>
       <c r="E118" t="n">
-        <v>0.4536172233941531</v>
+        <v>0.3472916748373237</v>
       </c>
       <c r="F118" t="n">
-        <v>0.4520551105604134</v>
+        <v>0.6928461581672845</v>
       </c>
       <c r="G118" t="n">
-        <v>0.6939907706686459</v>
+        <v>0.9500734162991324</v>
       </c>
     </row>
     <row r="119">
@@ -3167,16 +3167,16 @@
         <v>0.4657772371075047</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5583011298654439</v>
+        <v>0.5577801181587118</v>
       </c>
       <c r="E119" t="n">
-        <v>0.6497373312931234</v>
+        <v>0.6811921909998337</v>
       </c>
       <c r="F119" t="n">
-        <v>0.5589962923380239</v>
+        <v>0.5066451682415429</v>
       </c>
       <c r="G119" t="n">
-        <v>0.4599215105003114</v>
+        <v>0.4069603241805938</v>
       </c>
     </row>
     <row r="120">
@@ -3190,16 +3190,16 @@
         <v>0.03998312857812614</v>
       </c>
       <c r="D120" t="n">
-        <v>0.4171332643136239</v>
+        <v>0.4186343716034688</v>
       </c>
       <c r="E120" t="n">
-        <v>0.5717669518848896</v>
+        <v>0.6081527498524232</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5622763562700774</v>
+        <v>0.440956018166044</v>
       </c>
       <c r="G120" t="n">
-        <v>0.4746953796308005</v>
+        <v>0.5237829895021329</v>
       </c>
     </row>
     <row r="121">
@@ -3213,16 +3213,16 @@
         <v>0.1268934820889714</v>
       </c>
       <c r="D121" t="n">
-        <v>0.7145090703458271</v>
+        <v>0.7122577919905687</v>
       </c>
       <c r="E121" t="n">
-        <v>0.5121918017224449</v>
+        <v>0.5710791210521201</v>
       </c>
       <c r="F121" t="n">
-        <v>0.631852642192725</v>
+        <v>0.4748910567863833</v>
       </c>
       <c r="G121" t="n">
-        <v>0.3678830774237327</v>
+        <v>0.4386854880744519</v>
       </c>
     </row>
   </sheetData>
